--- a/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="A835" sheetId="1" r:id="rId1"/>
-    <sheet name="A835ox" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 A835  0-1-6-12 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 A835ox  0-1-6-12 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A835</a:t>
+              <a:t>Izoterma adsorpcji probki A835 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>A835!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 A835  0-1-6-12 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>A835!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 A835  0-1-6-12 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A835ox</a:t>
+              <a:t>Izoterma adsorpcji probki A835ox z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>A835ox!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 A835ox  0-1-6-12 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>A835ox!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 A835ox  0-1-6-12 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
@@ -2185,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,365 +2206,437 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0112</v>
+        <v>0.9653</v>
       </c>
       <c r="B3" s="0">
-        <v>8.6962</v>
+        <v>11.2665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0165</v>
+        <v>0.9376</v>
       </c>
       <c r="B4" s="0">
-        <v>8.9108</v>
+        <v>11.2268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.023</v>
+        <v>0.8833</v>
       </c>
       <c r="B5" s="0">
-        <v>9.0886</v>
+        <v>11.1476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0361</v>
+        <v>0.8585</v>
       </c>
       <c r="B6" s="0">
-        <v>9.2868</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0545</v>
+        <v>0.8358</v>
       </c>
       <c r="B7" s="0">
-        <v>9.4778</v>
+        <v>11.0841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0752</v>
+        <v>0.8081</v>
       </c>
       <c r="B8" s="0">
-        <v>9.5945</v>
+        <v>11.0366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0995</v>
+        <v>0.7815</v>
       </c>
       <c r="B9" s="0">
-        <v>9.7316</v>
+        <v>11.0127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1226</v>
+        <v>0.7488</v>
       </c>
       <c r="B10" s="0">
-        <v>9.8313</v>
+        <v>10.9573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1456</v>
+        <v>0.7202</v>
       </c>
       <c r="B11" s="0">
-        <v>9.9036</v>
+        <v>10.9334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1686</v>
+        <v>0.6915</v>
       </c>
       <c r="B12" s="0">
-        <v>9.9667</v>
+        <v>10.8859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1916</v>
+        <v>0.6638</v>
       </c>
       <c r="B13" s="0">
-        <v>10.0429</v>
+        <v>10.8462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2145</v>
+        <v>0.6401</v>
       </c>
       <c r="B14" s="0">
-        <v>10.0811</v>
+        <v>10.8066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2375</v>
+        <v>0.6115</v>
       </c>
       <c r="B15" s="0">
-        <v>10.1398</v>
+        <v>10.7749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.26</v>
+        <v>0.5838</v>
       </c>
       <c r="B16" s="0">
-        <v>10.1809</v>
+        <v>10.7195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2835</v>
+        <v>0.5561</v>
       </c>
       <c r="B17" s="0">
-        <v>10.2242</v>
+        <v>10.6798</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3065</v>
+        <v>0.5304</v>
       </c>
       <c r="B18" s="0">
-        <v>10.2745</v>
+        <v>10.656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3295</v>
+        <v>0.5047</v>
       </c>
       <c r="B19" s="0">
-        <v>10.3123</v>
+        <v>10.6084</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3525</v>
+        <v>0.476</v>
       </c>
       <c r="B20" s="0">
-        <v>10.3496</v>
+        <v>10.5609</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3755</v>
+        <v>0.4464</v>
       </c>
       <c r="B21" s="0">
-        <v>10.3994</v>
+        <v>10.5213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3985</v>
+        <v>0.4197</v>
       </c>
       <c r="B22" s="0">
-        <v>10.4286</v>
+        <v>10.4737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4215</v>
+        <v>0.397</v>
       </c>
       <c r="B23" s="0">
-        <v>10.4876</v>
+        <v>10.4341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.445</v>
+        <v>0.3713</v>
       </c>
       <c r="B24" s="0">
-        <v>10.5086</v>
+        <v>10.4024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4693</v>
+        <v>0.3436</v>
       </c>
       <c r="B25" s="0">
-        <v>10.5445</v>
+        <v>10.3391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4926</v>
+        <v>0.313</v>
       </c>
       <c r="B26" s="0">
-        <v>10.604</v>
+        <v>10.2916</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5134</v>
+        <v>0.313</v>
       </c>
       <c r="B27" s="0">
-        <v>10.608</v>
+        <v>10.2916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.543</v>
+        <v>0.3021</v>
       </c>
       <c r="B28" s="0">
-        <v>10.6594</v>
+        <v>10.2678</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.566</v>
+        <v>0.2576</v>
       </c>
       <c r="B29" s="0">
-        <v>10.727</v>
+        <v>10.1729</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5889</v>
+        <v>0.2329</v>
       </c>
       <c r="B30" s="0">
-        <v>10.7206</v>
+        <v>10.1254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6135</v>
+        <v>0.2181</v>
       </c>
       <c r="B31" s="0">
-        <v>10.7652</v>
+        <v>10.0937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6349</v>
+        <v>0.1924</v>
       </c>
       <c r="B32" s="0">
-        <v>10.7913</v>
+        <v>10.0383</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6579</v>
+        <v>0.1815</v>
       </c>
       <c r="B33" s="0">
-        <v>10.8375</v>
+        <v>9.9988</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6809</v>
+        <v>0.1716</v>
       </c>
       <c r="B34" s="0">
-        <v>10.8566</v>
+        <v>9.983</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7039</v>
+        <v>0.1548</v>
       </c>
       <c r="B35" s="0">
-        <v>10.9064</v>
+        <v>9.9355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7267</v>
+        <v>0.1449</v>
       </c>
       <c r="B36" s="0">
-        <v>10.9445</v>
+        <v>9.9039</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7499</v>
+        <v>0.1192</v>
       </c>
       <c r="B37" s="0">
-        <v>10.9636</v>
+        <v>9.8249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7723</v>
+        <v>0.1064</v>
       </c>
       <c r="B38" s="0">
-        <v>10.9823</v>
+        <v>9.7774</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7958</v>
+        <v>0.1064</v>
       </c>
       <c r="B39" s="0">
-        <v>11.0048</v>
+        <v>9.7774</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8188</v>
+        <v>0.0925</v>
       </c>
       <c r="B40" s="0">
-        <v>11.0358</v>
+        <v>9.7221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8418</v>
+        <v>0.0846</v>
       </c>
       <c r="B41" s="0">
-        <v>11.0358</v>
+        <v>9.6905</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8648</v>
+        <v>0.0797</v>
       </c>
       <c r="B42" s="0">
-        <v>11.0999</v>
+        <v>9.6511</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8878</v>
+        <v>0.0708</v>
       </c>
       <c r="B43" s="0">
-        <v>11.156</v>
+        <v>9.6116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9106</v>
+        <v>0.0658</v>
       </c>
       <c r="B44" s="0">
-        <v>11.171</v>
+        <v>9.5879</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9338</v>
+        <v>0.0609</v>
       </c>
       <c r="B45" s="0">
-        <v>11.2234</v>
+        <v>9.5484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9563</v>
+        <v>0.0529</v>
       </c>
       <c r="B46" s="0">
-        <v>11.2268</v>
+        <v>9.4853</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9789</v>
+        <v>0.0421</v>
       </c>
       <c r="B47" s="0">
-        <v>11.2988</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>9.3748</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0381</v>
+      </c>
+      <c r="B48" s="0">
+        <v>9.3275</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0332</v>
+      </c>
+      <c r="B49" s="0">
+        <v>9.288</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B50" s="0">
+        <v>9.2013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0232</v>
+      </c>
+      <c r="B51" s="0">
+        <v>9.0909</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B52" s="0">
+        <v>9.0277</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0153</v>
+      </c>
+      <c r="B53" s="0">
+        <v>8.9331</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0123</v>
+      </c>
+      <c r="B54" s="0">
+        <v>8.8306</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0113</v>
+      </c>
+      <c r="B55" s="0">
+        <v>8.7281</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0083</v>
+      </c>
+      <c r="B56" s="0">
+        <v>8.6256</v>
+      </c>
+    </row>
+    <row r="57"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2594,466 +2666,466 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0092</v>
+        <v>0.9653</v>
       </c>
       <c r="B3" s="0">
-        <v>8.0914</v>
+        <v>11.1167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0131</v>
+        <v>0.9504</v>
       </c>
       <c r="B4" s="0">
-        <v>8.3237</v>
+        <v>11.0929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.02</v>
+        <v>0.9089</v>
       </c>
       <c r="B5" s="0">
-        <v>8.5229</v>
+        <v>11.0137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0115</v>
+        <v>0.8822</v>
       </c>
       <c r="B6" s="0">
-        <v>8.1664</v>
+        <v>10.9741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0287</v>
+        <v>0.8565</v>
       </c>
       <c r="B7" s="0">
-        <v>8.6823</v>
+        <v>10.9187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0352</v>
+        <v>0.8318</v>
       </c>
       <c r="B8" s="0">
-        <v>8.8661</v>
+        <v>10.887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0497</v>
+        <v>0.8081</v>
       </c>
       <c r="B9" s="0">
-        <v>8.9875</v>
+        <v>10.8316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0662</v>
+        <v>0.7814</v>
       </c>
       <c r="B10" s="0">
-        <v>9.1113</v>
+        <v>10.792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0839</v>
+        <v>0.7537</v>
       </c>
       <c r="B11" s="0">
-        <v>9.2203</v>
+        <v>10.7366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.102</v>
+        <v>0.7261</v>
       </c>
       <c r="B12" s="0">
-        <v>9.3089</v>
+        <v>10.7048</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1198</v>
+        <v>0.7023</v>
       </c>
       <c r="B13" s="0">
-        <v>9.393</v>
+        <v>10.6494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1383</v>
+        <v>0.6826</v>
       </c>
       <c r="B14" s="0">
-        <v>9.4615</v>
+        <v>10.6256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1547</v>
+        <v>0.6351</v>
       </c>
       <c r="B15" s="0">
-        <v>9.5153</v>
+        <v>10.5385</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1742</v>
+        <v>0.6084</v>
       </c>
       <c r="B16" s="0">
-        <v>9.5685</v>
+        <v>10.491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1934</v>
+        <v>0.5887</v>
       </c>
       <c r="B17" s="0">
-        <v>9.6542</v>
+        <v>10.4672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2097</v>
+        <v>0.561</v>
       </c>
       <c r="B18" s="0">
-        <v>9.6887</v>
+        <v>10.4118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.23</v>
+        <v>0.5323</v>
       </c>
       <c r="B19" s="0">
-        <v>9.7335</v>
+        <v>10.3564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2472</v>
+        <v>0.5037</v>
       </c>
       <c r="B20" s="0">
-        <v>9.7829</v>
+        <v>10.3088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2634</v>
+        <v>0.475</v>
       </c>
       <c r="B21" s="0">
-        <v>9.8179</v>
+        <v>10.2534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2818</v>
+        <v>0.4483</v>
       </c>
       <c r="B22" s="0">
-        <v>9.8665</v>
+        <v>10.2059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3014</v>
+        <v>0.4197</v>
       </c>
       <c r="B23" s="0">
-        <v>9.8908</v>
+        <v>10.1505</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3188</v>
+        <v>0.39</v>
       </c>
       <c r="B24" s="0">
-        <v>9.9572</v>
+        <v>10.0872</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3365</v>
+        <v>0.3346</v>
       </c>
       <c r="B25" s="0">
-        <v>9.9778</v>
+        <v>9.9921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3563</v>
+        <v>0.3089</v>
       </c>
       <c r="B26" s="0">
-        <v>10.0251</v>
+        <v>9.9288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.373</v>
+        <v>0.2981</v>
       </c>
       <c r="B27" s="0">
-        <v>10.0436</v>
+        <v>9.9209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.391</v>
+        <v>0.2724</v>
       </c>
       <c r="B28" s="0">
-        <v>10.0891</v>
+        <v>9.8418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4094</v>
+        <v>0.2585</v>
       </c>
       <c r="B29" s="0">
-        <v>10.1028</v>
+        <v>9.8181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4272</v>
+        <v>0.2328</v>
       </c>
       <c r="B30" s="0">
-        <v>10.1664</v>
+        <v>9.7548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4456</v>
+        <v>0.214</v>
       </c>
       <c r="B31" s="0">
-        <v>10.1931</v>
+        <v>9.7073</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4638</v>
+        <v>0.1824</v>
       </c>
       <c r="B32" s="0">
-        <v>10.2283</v>
+        <v>9.6282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.4813</v>
+        <v>0.1725</v>
       </c>
       <c r="B33" s="0">
-        <v>10.2545</v>
+        <v>9.5966</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5005</v>
+        <v>0.1577</v>
       </c>
       <c r="B34" s="0">
-        <v>10.2864</v>
+        <v>9.5492</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5175</v>
+        <v>0.1488</v>
       </c>
       <c r="B35" s="0">
-        <v>10.3306</v>
+        <v>9.5176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.5353</v>
+        <v>0.1231</v>
       </c>
       <c r="B36" s="0">
-        <v>10.3615</v>
+        <v>9.4307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.5539</v>
+        <v>0.1152</v>
       </c>
       <c r="B37" s="0">
-        <v>10.3944</v>
+        <v>9.3991</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.571</v>
+        <v>0.1033</v>
       </c>
       <c r="B38" s="0">
-        <v>10.4175</v>
+        <v>9.3517</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.5897</v>
+        <v>0.0974</v>
       </c>
       <c r="B39" s="0">
-        <v>10.4578</v>
+        <v>9.3201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6078</v>
+        <v>0.0905</v>
       </c>
       <c r="B40" s="0">
-        <v>10.4744</v>
+        <v>9.2885</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.6275</v>
+        <v>0.0835</v>
       </c>
       <c r="B41" s="0">
-        <v>10.5284</v>
+        <v>9.2411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.6457</v>
+        <v>0.0776</v>
       </c>
       <c r="B42" s="0">
-        <v>10.5518</v>
+        <v>9.2095</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.6636</v>
+        <v>0.0667</v>
       </c>
       <c r="B43" s="0">
-        <v>10.5851</v>
+        <v>9.1464</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.6819</v>
+        <v>0.0598</v>
       </c>
       <c r="B44" s="0">
-        <v>10.6052</v>
+        <v>9.0911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.7006</v>
+        <v>0.0529</v>
       </c>
       <c r="B45" s="0">
-        <v>10.6346</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.7189</v>
+        <v>0.044</v>
       </c>
       <c r="B46" s="0">
-        <v>10.6744</v>
+        <v>8.957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.7339</v>
+        <v>0.039</v>
       </c>
       <c r="B47" s="0">
-        <v>10.6932</v>
+        <v>8.9018</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.7539</v>
+        <v>0.037</v>
       </c>
       <c r="B48" s="0">
-        <v>10.7334</v>
+        <v>8.8623</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.7729</v>
+        <v>0.0301</v>
       </c>
       <c r="B49" s="0">
-        <v>10.7808</v>
+        <v>8.7834</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.7886</v>
+        <v>0.0271</v>
       </c>
       <c r="B50" s="0">
-        <v>10.7974</v>
+        <v>8.7361</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.8081</v>
+        <v>0.0242</v>
       </c>
       <c r="B51" s="0">
-        <v>10.8273</v>
+        <v>8.6493</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.8278</v>
+        <v>0.0192</v>
       </c>
       <c r="B52" s="0">
-        <v>10.8629</v>
+        <v>8.5783</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.8461</v>
+        <v>0.0162</v>
       </c>
       <c r="B53" s="0">
-        <v>10.8971</v>
+        <v>8.5074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.8625</v>
+        <v>0.0142</v>
       </c>
       <c r="B54" s="0">
-        <v>10.913</v>
+        <v>8.4443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.882</v>
+        <v>0.0122</v>
       </c>
       <c r="B55" s="0">
-        <v>10.9443</v>
+        <v>8.3418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.9008</v>
+        <v>0.0103</v>
       </c>
       <c r="B56" s="0">
-        <v>10.9873</v>
+        <v>8.2629</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.9181</v>
+        <v>0.0093</v>
       </c>
       <c r="B57" s="0">
-        <v>11.0103</v>
+        <v>8.1919</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.9708</v>
+        <v>0.0022</v>
       </c>
       <c r="B58" s="0">
-        <v>11.1393</v>
+        <v>7.6321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.9534</v>
+        <v>0.0011</v>
       </c>
       <c r="B59" s="0">
-        <v>11.0929</v>
+        <v>6.8436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.9356</v>
+        <v>0.001</v>
       </c>
       <c r="B60" s="0">
-        <v>11.0613</v>
+        <v>6.1813</v>
       </c>
     </row>
     <row r="61"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
@@ -5,23 +5,31 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 A835  0-1-6-12 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_1 A835ox  0-1-6-12 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 V840  0&amp;1&amp;4&amp;14 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 V840ox  0&amp;1&amp;4&amp;14 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 A835  0&amp;1&amp;6&amp;12 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 A835ox  0&amp;1&amp;6&amp;12 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>A835</t>
+    <t>V840</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>V840ox</t>
+  </si>
+  <si>
+    <t>A835</t>
   </si>
   <si>
     <t>A835ox</t>
@@ -69,6 +77,634 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki V840 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 V840  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 V840  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki V840ox z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 V840ox  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 V840ox  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -160,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 A835  0-1-6-12 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 A835  0&amp;1&amp;6&amp;12 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 A835  0-1-6-12 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 A835  0&amp;1&amp;6&amp;12 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -382,7 +1018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -474,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 A835ox  0-1-6-12 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 A835ox  0&amp;1&amp;6&amp;12 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 A835ox  0-1-6-12 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 A835ox  0&amp;1&amp;6&amp;12 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -776,6 +1412,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -1298,6 +2014,1048 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1871,6 +3629,76 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2185,6 +4013,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9649</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.7435</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9401</v>
+      </c>
+      <c r="B4" s="0">
+        <v>13.6812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9089</v>
+      </c>
+      <c r="B5" s="0">
+        <v>13.5878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8836</v>
+      </c>
+      <c r="B6" s="0">
+        <v>13.5333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8568</v>
+      </c>
+      <c r="B7" s="0">
+        <v>13.4399</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8296</v>
+      </c>
+      <c r="B8" s="0">
+        <v>13.3543</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8038</v>
+      </c>
+      <c r="B9" s="0">
+        <v>13.292</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.778</v>
+      </c>
+      <c r="B10" s="0">
+        <v>13.2141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7487</v>
+      </c>
+      <c r="B11" s="0">
+        <v>13.144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7224</v>
+      </c>
+      <c r="B12" s="0">
+        <v>13.0817</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6942</v>
+      </c>
+      <c r="B13" s="0">
+        <v>12.9961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6635</v>
+      </c>
+      <c r="B14" s="0">
+        <v>12.926</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6387</v>
+      </c>
+      <c r="B15" s="0">
+        <v>12.8559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6109</v>
+      </c>
+      <c r="B16" s="0">
+        <v>12.8013</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5827</v>
+      </c>
+      <c r="B17" s="0">
+        <v>12.7235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5545</v>
+      </c>
+      <c r="B18" s="0">
+        <v>12.6534</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5287</v>
+      </c>
+      <c r="B19" s="0">
+        <v>12.5988</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5014</v>
+      </c>
+      <c r="B20" s="0">
+        <v>12.5287</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4702</v>
+      </c>
+      <c r="B21" s="0">
+        <v>12.4664</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4235</v>
+      </c>
+      <c r="B22" s="0">
+        <v>12.3573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3952</v>
+      </c>
+      <c r="B23" s="0">
+        <v>12.2639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3675</v>
+      </c>
+      <c r="B24" s="0">
+        <v>12.2094</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3368</v>
+      </c>
+      <c r="B25" s="0">
+        <v>12.1315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3091</v>
+      </c>
+      <c r="B26" s="0">
+        <v>12.0614</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2969</v>
+      </c>
+      <c r="B27" s="0">
+        <v>12.0458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2579</v>
+      </c>
+      <c r="B28" s="0">
+        <v>11.9445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.217</v>
+      </c>
+      <c r="B29" s="0">
+        <v>11.7967</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2039</v>
+      </c>
+      <c r="B30" s="0">
+        <v>11.7656</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1795</v>
+      </c>
+      <c r="B31" s="0">
+        <v>11.6722</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1688</v>
+      </c>
+      <c r="B32" s="0">
+        <v>11.6333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1284</v>
+      </c>
+      <c r="B33" s="0">
+        <v>11.4544</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1157</v>
+      </c>
+      <c r="B34" s="0">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.105</v>
+      </c>
+      <c r="B35" s="0">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0929</v>
+      </c>
+      <c r="B36" s="0">
+        <v>11.2523</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0841</v>
+      </c>
+      <c r="B37" s="0">
+        <v>11.1901</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0782</v>
+      </c>
+      <c r="B38" s="0">
+        <v>11.1357</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.07</v>
+      </c>
+      <c r="B39" s="0">
+        <v>11.0425</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0515</v>
+      </c>
+      <c r="B40" s="0">
+        <v>10.8637</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0427</v>
+      </c>
+      <c r="B41" s="0">
+        <v>10.7395</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.032</v>
+      </c>
+      <c r="B42" s="0">
+        <v>10.5375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0276</v>
+      </c>
+      <c r="B43" s="0">
+        <v>10.4133</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0198</v>
+      </c>
+      <c r="B44" s="0">
+        <v>10.2036</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0144</v>
+      </c>
+      <c r="B45" s="0">
+        <v>10.0482</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0125</v>
+      </c>
+      <c r="B46" s="0">
+        <v>9.9007</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="B47" s="0">
+        <v>9.6057</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0037</v>
+      </c>
+      <c r="B48" s="0">
+        <v>9.0932</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0031</v>
+      </c>
+      <c r="B49" s="0">
+        <v>8.573</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0026</v>
+      </c>
+      <c r="B50" s="0">
+        <v>7.6724</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0021</v>
+      </c>
+      <c r="B51" s="0">
+        <v>6.8727</v>
+      </c>
+    </row>
+    <row r="52"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9808</v>
+      </c>
+      <c r="B3" s="0">
+        <v>10.079</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9355</v>
+      </c>
+      <c r="B4" s="0">
+        <v>9.8225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9097</v>
+      </c>
+      <c r="B5" s="0">
+        <v>9.7213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.881</v>
+      </c>
+      <c r="B6" s="0">
+        <v>9.6047</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8562</v>
+      </c>
+      <c r="B7" s="0">
+        <v>9.5113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8304</v>
+      </c>
+      <c r="B8" s="0">
+        <v>9.4412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.806</v>
+      </c>
+      <c r="B9" s="0">
+        <v>9.3556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7812</v>
+      </c>
+      <c r="B10" s="0">
+        <v>9.2778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7456</v>
+      </c>
+      <c r="B11" s="0">
+        <v>9.1611</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7188</v>
+      </c>
+      <c r="B12" s="0">
+        <v>9.0987</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6945</v>
+      </c>
+      <c r="B13" s="0">
+        <v>8.9976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6677</v>
+      </c>
+      <c r="B14" s="0">
+        <v>8.9431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6419</v>
+      </c>
+      <c r="B15" s="0">
+        <v>8.8575</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6151</v>
+      </c>
+      <c r="B16" s="0">
+        <v>8.7719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5869</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8.725</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5572</v>
+      </c>
+      <c r="B18" s="0">
+        <v>8.6394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5314</v>
+      </c>
+      <c r="B19" s="0">
+        <v>8.5616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5041</v>
+      </c>
+      <c r="B20" s="0">
+        <v>8.4993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4749</v>
+      </c>
+      <c r="B21" s="0">
+        <v>8.4059</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4481</v>
+      </c>
+      <c r="B22" s="0">
+        <v>8.3513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4223</v>
+      </c>
+      <c r="B23" s="0">
+        <v>8.2968</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3946</v>
+      </c>
+      <c r="B24" s="0">
+        <v>8.2189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3688</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8.1566</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3395</v>
+      </c>
+      <c r="B26" s="0">
+        <v>8.0865</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3137</v>
+      </c>
+      <c r="B27" s="0">
+        <v>8.0242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3025</v>
+      </c>
+      <c r="B28" s="0">
+        <v>7.993</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2874</v>
+      </c>
+      <c r="B29" s="0">
+        <v>7.9386</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2577</v>
+      </c>
+      <c r="B30" s="0">
+        <v>7.8762</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2329</v>
+      </c>
+      <c r="B31" s="0">
+        <v>7.8217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2178</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7.7517</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1808</v>
+      </c>
+      <c r="B33" s="0">
+        <v>7.6427</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1715</v>
+      </c>
+      <c r="B34" s="0">
+        <v>7.596</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1404</v>
+      </c>
+      <c r="B35" s="0">
+        <v>7.4716</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1326</v>
+      </c>
+      <c r="B36" s="0">
+        <v>7.4327</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1185</v>
+      </c>
+      <c r="B37" s="0">
+        <v>7.3627</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1068</v>
+      </c>
+      <c r="B38" s="0">
+        <v>7.3005</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0941</v>
+      </c>
+      <c r="B39" s="0">
+        <v>7.215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0844</v>
+      </c>
+      <c r="B40" s="0">
+        <v>7.1373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0683</v>
+      </c>
+      <c r="B41" s="0">
+        <v>7.0129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0591</v>
+      </c>
+      <c r="B42" s="0">
+        <v>6.9197</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0527</v>
+      </c>
+      <c r="B43" s="0">
+        <v>6.8498</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0449</v>
+      </c>
+      <c r="B44" s="0">
+        <v>6.7488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0303</v>
+      </c>
+      <c r="B45" s="0">
+        <v>6.5158</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.021</v>
+      </c>
+      <c r="B46" s="0">
+        <v>6.3216</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0132</v>
+      </c>
+      <c r="B47" s="0">
+        <v>6.0886</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0084</v>
+      </c>
+      <c r="B48" s="0">
+        <v>5.8712</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B49" s="0">
+        <v>5.6149</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0015</v>
+      </c>
+      <c r="B50" s="0">
+        <v>4.8308</v>
+      </c>
+    </row>
+    <row r="51"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2193,7 +4853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -2643,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B61"/>
   <sheetViews>
@@ -2653,7 +5313,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 105 Influence of oxidation process/Data105_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 V840  0&amp;1&amp;4&amp;14 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 V840ox  0&amp;1&amp;4&amp;14 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_1 A835  0&amp;1&amp;6&amp;12 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_1 A835ox  0&amp;1&amp;6&amp;12 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 A835  0&amp;1&amp;6&amp;12 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 A835ox  0&amp;1&amp;6&amp;12 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_2 V840  0&amp;1&amp;4&amp;14 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 V840ox  0&amp;1&amp;4&amp;14 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>V840</t>
+    <t>A835</t>
   </si>
   <si>
     <t>X</t>
@@ -26,13 +26,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>V840ox</t>
+    <t>A835ox</t>
   </si>
   <si>
-    <t>A835</t>
+    <t>V840</t>
   </si>
   <si>
-    <t>A835ox</t>
+    <t>V840ox</t>
   </si>
 </sst>
 </file>
@@ -77,634 +77,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki V840 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 V840  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 V840  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki V840ox z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 V840ox  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 V840ox  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1018,7 +390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1332,6 +704,634 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki V840 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 V840  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 V840  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki V840ox z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 V840ox  0&amp;1&amp;4&amp;14 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 V840ox  0&amp;1&amp;4&amp;14 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4013,6 +4013,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9653</v>
+      </c>
+      <c r="B3" s="0">
+        <v>11.2665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9376</v>
+      </c>
+      <c r="B4" s="0">
+        <v>11.2268</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8833</v>
+      </c>
+      <c r="B5" s="0">
+        <v>11.1476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8585</v>
+      </c>
+      <c r="B6" s="0">
+        <v>11.108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8358</v>
+      </c>
+      <c r="B7" s="0">
+        <v>11.0841</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8081</v>
+      </c>
+      <c r="B8" s="0">
+        <v>11.0366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7815</v>
+      </c>
+      <c r="B9" s="0">
+        <v>11.0127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7488</v>
+      </c>
+      <c r="B10" s="0">
+        <v>10.9573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7202</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10.9334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6915</v>
+      </c>
+      <c r="B12" s="0">
+        <v>10.8859</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6638</v>
+      </c>
+      <c r="B13" s="0">
+        <v>10.8462</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6401</v>
+      </c>
+      <c r="B14" s="0">
+        <v>10.8066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6115</v>
+      </c>
+      <c r="B15" s="0">
+        <v>10.7749</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5838</v>
+      </c>
+      <c r="B16" s="0">
+        <v>10.7195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5561</v>
+      </c>
+      <c r="B17" s="0">
+        <v>10.6798</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5304</v>
+      </c>
+      <c r="B18" s="0">
+        <v>10.656</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5047</v>
+      </c>
+      <c r="B19" s="0">
+        <v>10.6084</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.476</v>
+      </c>
+      <c r="B20" s="0">
+        <v>10.5609</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4464</v>
+      </c>
+      <c r="B21" s="0">
+        <v>10.5213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4197</v>
+      </c>
+      <c r="B22" s="0">
+        <v>10.4737</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.397</v>
+      </c>
+      <c r="B23" s="0">
+        <v>10.4341</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3713</v>
+      </c>
+      <c r="B24" s="0">
+        <v>10.4024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3436</v>
+      </c>
+      <c r="B25" s="0">
+        <v>10.3391</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.313</v>
+      </c>
+      <c r="B26" s="0">
+        <v>10.2916</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.313</v>
+      </c>
+      <c r="B27" s="0">
+        <v>10.2916</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3021</v>
+      </c>
+      <c r="B28" s="0">
+        <v>10.2678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2576</v>
+      </c>
+      <c r="B29" s="0">
+        <v>10.1729</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2329</v>
+      </c>
+      <c r="B30" s="0">
+        <v>10.1254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2181</v>
+      </c>
+      <c r="B31" s="0">
+        <v>10.0937</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1924</v>
+      </c>
+      <c r="B32" s="0">
+        <v>10.0383</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1815</v>
+      </c>
+      <c r="B33" s="0">
+        <v>9.9988</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1716</v>
+      </c>
+      <c r="B34" s="0">
+        <v>9.983</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1548</v>
+      </c>
+      <c r="B35" s="0">
+        <v>9.9355</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1449</v>
+      </c>
+      <c r="B36" s="0">
+        <v>9.9039</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1192</v>
+      </c>
+      <c r="B37" s="0">
+        <v>9.8249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1064</v>
+      </c>
+      <c r="B38" s="0">
+        <v>9.7774</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1064</v>
+      </c>
+      <c r="B39" s="0">
+        <v>9.7774</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B40" s="0">
+        <v>9.7221</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0846</v>
+      </c>
+      <c r="B41" s="0">
+        <v>9.6905</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0797</v>
+      </c>
+      <c r="B42" s="0">
+        <v>9.6511</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0708</v>
+      </c>
+      <c r="B43" s="0">
+        <v>9.6116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0658</v>
+      </c>
+      <c r="B44" s="0">
+        <v>9.5879</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0609</v>
+      </c>
+      <c r="B45" s="0">
+        <v>9.5484</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0529</v>
+      </c>
+      <c r="B46" s="0">
+        <v>9.4853</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0421</v>
+      </c>
+      <c r="B47" s="0">
+        <v>9.3748</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0381</v>
+      </c>
+      <c r="B48" s="0">
+        <v>9.3275</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0332</v>
+      </c>
+      <c r="B49" s="0">
+        <v>9.288</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B50" s="0">
+        <v>9.2013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0232</v>
+      </c>
+      <c r="B51" s="0">
+        <v>9.0909</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B52" s="0">
+        <v>9.0277</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0153</v>
+      </c>
+      <c r="B53" s="0">
+        <v>8.9331</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0123</v>
+      </c>
+      <c r="B54" s="0">
+        <v>8.8306</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0113</v>
+      </c>
+      <c r="B55" s="0">
+        <v>8.7281</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0083</v>
+      </c>
+      <c r="B56" s="0">
+        <v>8.6256</v>
+      </c>
+    </row>
+    <row r="57"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9653</v>
+      </c>
+      <c r="B3" s="0">
+        <v>11.1167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9504</v>
+      </c>
+      <c r="B4" s="0">
+        <v>11.0929</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9089</v>
+      </c>
+      <c r="B5" s="0">
+        <v>11.0137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8822</v>
+      </c>
+      <c r="B6" s="0">
+        <v>10.9741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8565</v>
+      </c>
+      <c r="B7" s="0">
+        <v>10.9187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8318</v>
+      </c>
+      <c r="B8" s="0">
+        <v>10.887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8081</v>
+      </c>
+      <c r="B9" s="0">
+        <v>10.8316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7814</v>
+      </c>
+      <c r="B10" s="0">
+        <v>10.792</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7537</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10.7366</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7261</v>
+      </c>
+      <c r="B12" s="0">
+        <v>10.7048</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7023</v>
+      </c>
+      <c r="B13" s="0">
+        <v>10.6494</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6826</v>
+      </c>
+      <c r="B14" s="0">
+        <v>10.6256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6351</v>
+      </c>
+      <c r="B15" s="0">
+        <v>10.5385</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6084</v>
+      </c>
+      <c r="B16" s="0">
+        <v>10.491</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5887</v>
+      </c>
+      <c r="B17" s="0">
+        <v>10.4672</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.561</v>
+      </c>
+      <c r="B18" s="0">
+        <v>10.4118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5323</v>
+      </c>
+      <c r="B19" s="0">
+        <v>10.3564</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5037</v>
+      </c>
+      <c r="B20" s="0">
+        <v>10.3088</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.475</v>
+      </c>
+      <c r="B21" s="0">
+        <v>10.2534</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4483</v>
+      </c>
+      <c r="B22" s="0">
+        <v>10.2059</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4197</v>
+      </c>
+      <c r="B23" s="0">
+        <v>10.1505</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.39</v>
+      </c>
+      <c r="B24" s="0">
+        <v>10.0872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3346</v>
+      </c>
+      <c r="B25" s="0">
+        <v>9.9921</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3089</v>
+      </c>
+      <c r="B26" s="0">
+        <v>9.9288</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2981</v>
+      </c>
+      <c r="B27" s="0">
+        <v>9.9209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2724</v>
+      </c>
+      <c r="B28" s="0">
+        <v>9.8418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2585</v>
+      </c>
+      <c r="B29" s="0">
+        <v>9.8181</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2328</v>
+      </c>
+      <c r="B30" s="0">
+        <v>9.7548</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.214</v>
+      </c>
+      <c r="B31" s="0">
+        <v>9.7073</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1824</v>
+      </c>
+      <c r="B32" s="0">
+        <v>9.6282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1725</v>
+      </c>
+      <c r="B33" s="0">
+        <v>9.5966</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1577</v>
+      </c>
+      <c r="B34" s="0">
+        <v>9.5492</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1488</v>
+      </c>
+      <c r="B35" s="0">
+        <v>9.5176</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1231</v>
+      </c>
+      <c r="B36" s="0">
+        <v>9.4307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1152</v>
+      </c>
+      <c r="B37" s="0">
+        <v>9.3991</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1033</v>
+      </c>
+      <c r="B38" s="0">
+        <v>9.3517</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0974</v>
+      </c>
+      <c r="B39" s="0">
+        <v>9.3201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B40" s="0">
+        <v>9.2885</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0835</v>
+      </c>
+      <c r="B41" s="0">
+        <v>9.2411</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0776</v>
+      </c>
+      <c r="B42" s="0">
+        <v>9.2095</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0667</v>
+      </c>
+      <c r="B43" s="0">
+        <v>9.1464</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0598</v>
+      </c>
+      <c r="B44" s="0">
+        <v>9.0911</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0529</v>
+      </c>
+      <c r="B45" s="0">
+        <v>9.028</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.044</v>
+      </c>
+      <c r="B46" s="0">
+        <v>8.957</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="B47" s="0">
+        <v>8.9018</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.037</v>
+      </c>
+      <c r="B48" s="0">
+        <v>8.8623</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0301</v>
+      </c>
+      <c r="B49" s="0">
+        <v>8.7834</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0271</v>
+      </c>
+      <c r="B50" s="0">
+        <v>8.7361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0242</v>
+      </c>
+      <c r="B51" s="0">
+        <v>8.6493</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0192</v>
+      </c>
+      <c r="B52" s="0">
+        <v>8.5783</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0162</v>
+      </c>
+      <c r="B53" s="0">
+        <v>8.5074</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0142</v>
+      </c>
+      <c r="B54" s="0">
+        <v>8.4443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0122</v>
+      </c>
+      <c r="B55" s="0">
+        <v>8.3418</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B56" s="0">
+        <v>8.2629</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.0093</v>
+      </c>
+      <c r="B57" s="0">
+        <v>8.1919</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.0022</v>
+      </c>
+      <c r="B58" s="0">
+        <v>7.6321</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B59" s="0">
+        <v>6.8436</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="B60" s="0">
+        <v>6.1813</v>
+      </c>
+    </row>
+    <row r="61"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,7 +4973,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4431,7 +5383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -4441,7 +5393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -4841,956 +5793,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9653</v>
-      </c>
-      <c r="B3" s="0">
-        <v>11.2665</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9376</v>
-      </c>
-      <c r="B4" s="0">
-        <v>11.2268</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8833</v>
-      </c>
-      <c r="B5" s="0">
-        <v>11.1476</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8585</v>
-      </c>
-      <c r="B6" s="0">
-        <v>11.108</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8358</v>
-      </c>
-      <c r="B7" s="0">
-        <v>11.0841</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8081</v>
-      </c>
-      <c r="B8" s="0">
-        <v>11.0366</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7815</v>
-      </c>
-      <c r="B9" s="0">
-        <v>11.0127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7488</v>
-      </c>
-      <c r="B10" s="0">
-        <v>10.9573</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.7202</v>
-      </c>
-      <c r="B11" s="0">
-        <v>10.9334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.6915</v>
-      </c>
-      <c r="B12" s="0">
-        <v>10.8859</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.6638</v>
-      </c>
-      <c r="B13" s="0">
-        <v>10.8462</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6401</v>
-      </c>
-      <c r="B14" s="0">
-        <v>10.8066</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.6115</v>
-      </c>
-      <c r="B15" s="0">
-        <v>10.7749</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5838</v>
-      </c>
-      <c r="B16" s="0">
-        <v>10.7195</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5561</v>
-      </c>
-      <c r="B17" s="0">
-        <v>10.6798</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5304</v>
-      </c>
-      <c r="B18" s="0">
-        <v>10.656</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5047</v>
-      </c>
-      <c r="B19" s="0">
-        <v>10.6084</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.476</v>
-      </c>
-      <c r="B20" s="0">
-        <v>10.5609</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4464</v>
-      </c>
-      <c r="B21" s="0">
-        <v>10.5213</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4197</v>
-      </c>
-      <c r="B22" s="0">
-        <v>10.4737</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.397</v>
-      </c>
-      <c r="B23" s="0">
-        <v>10.4341</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3713</v>
-      </c>
-      <c r="B24" s="0">
-        <v>10.4024</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3436</v>
-      </c>
-      <c r="B25" s="0">
-        <v>10.3391</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.313</v>
-      </c>
-      <c r="B26" s="0">
-        <v>10.2916</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.313</v>
-      </c>
-      <c r="B27" s="0">
-        <v>10.2916</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3021</v>
-      </c>
-      <c r="B28" s="0">
-        <v>10.2678</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.2576</v>
-      </c>
-      <c r="B29" s="0">
-        <v>10.1729</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.2329</v>
-      </c>
-      <c r="B30" s="0">
-        <v>10.1254</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.2181</v>
-      </c>
-      <c r="B31" s="0">
-        <v>10.0937</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.1924</v>
-      </c>
-      <c r="B32" s="0">
-        <v>10.0383</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.1815</v>
-      </c>
-      <c r="B33" s="0">
-        <v>9.9988</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.1716</v>
-      </c>
-      <c r="B34" s="0">
-        <v>9.983</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.1548</v>
-      </c>
-      <c r="B35" s="0">
-        <v>9.9355</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.1449</v>
-      </c>
-      <c r="B36" s="0">
-        <v>9.9039</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.1192</v>
-      </c>
-      <c r="B37" s="0">
-        <v>9.8249</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.1064</v>
-      </c>
-      <c r="B38" s="0">
-        <v>9.7774</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.1064</v>
-      </c>
-      <c r="B39" s="0">
-        <v>9.7774</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0925</v>
-      </c>
-      <c r="B40" s="0">
-        <v>9.7221</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0846</v>
-      </c>
-      <c r="B41" s="0">
-        <v>9.6905</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0797</v>
-      </c>
-      <c r="B42" s="0">
-        <v>9.6511</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0708</v>
-      </c>
-      <c r="B43" s="0">
-        <v>9.6116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0658</v>
-      </c>
-      <c r="B44" s="0">
-        <v>9.5879</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0609</v>
-      </c>
-      <c r="B45" s="0">
-        <v>9.5484</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0529</v>
-      </c>
-      <c r="B46" s="0">
-        <v>9.4853</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0421</v>
-      </c>
-      <c r="B47" s="0">
-        <v>9.3748</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0381</v>
-      </c>
-      <c r="B48" s="0">
-        <v>9.3275</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0332</v>
-      </c>
-      <c r="B49" s="0">
-        <v>9.288</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0272</v>
-      </c>
-      <c r="B50" s="0">
-        <v>9.2013</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0232</v>
-      </c>
-      <c r="B51" s="0">
-        <v>9.0909</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0193</v>
-      </c>
-      <c r="B52" s="0">
-        <v>9.0277</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0153</v>
-      </c>
-      <c r="B53" s="0">
-        <v>8.9331</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0123</v>
-      </c>
-      <c r="B54" s="0">
-        <v>8.8306</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0113</v>
-      </c>
-      <c r="B55" s="0">
-        <v>8.7281</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0083</v>
-      </c>
-      <c r="B56" s="0">
-        <v>8.6256</v>
-      </c>
-    </row>
-    <row r="57"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9653</v>
-      </c>
-      <c r="B3" s="0">
-        <v>11.1167</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9504</v>
-      </c>
-      <c r="B4" s="0">
-        <v>11.0929</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9089</v>
-      </c>
-      <c r="B5" s="0">
-        <v>11.0137</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8822</v>
-      </c>
-      <c r="B6" s="0">
-        <v>10.9741</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8565</v>
-      </c>
-      <c r="B7" s="0">
-        <v>10.9187</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8318</v>
-      </c>
-      <c r="B8" s="0">
-        <v>10.887</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.8081</v>
-      </c>
-      <c r="B9" s="0">
-        <v>10.8316</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7814</v>
-      </c>
-      <c r="B10" s="0">
-        <v>10.792</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.7537</v>
-      </c>
-      <c r="B11" s="0">
-        <v>10.7366</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.7261</v>
-      </c>
-      <c r="B12" s="0">
-        <v>10.7048</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.7023</v>
-      </c>
-      <c r="B13" s="0">
-        <v>10.6494</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6826</v>
-      </c>
-      <c r="B14" s="0">
-        <v>10.6256</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.6351</v>
-      </c>
-      <c r="B15" s="0">
-        <v>10.5385</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.6084</v>
-      </c>
-      <c r="B16" s="0">
-        <v>10.491</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5887</v>
-      </c>
-      <c r="B17" s="0">
-        <v>10.4672</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.561</v>
-      </c>
-      <c r="B18" s="0">
-        <v>10.4118</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5323</v>
-      </c>
-      <c r="B19" s="0">
-        <v>10.3564</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5037</v>
-      </c>
-      <c r="B20" s="0">
-        <v>10.3088</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.475</v>
-      </c>
-      <c r="B21" s="0">
-        <v>10.2534</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4483</v>
-      </c>
-      <c r="B22" s="0">
-        <v>10.2059</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4197</v>
-      </c>
-      <c r="B23" s="0">
-        <v>10.1505</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.39</v>
-      </c>
-      <c r="B24" s="0">
-        <v>10.0872</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3346</v>
-      </c>
-      <c r="B25" s="0">
-        <v>9.9921</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3089</v>
-      </c>
-      <c r="B26" s="0">
-        <v>9.9288</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2981</v>
-      </c>
-      <c r="B27" s="0">
-        <v>9.9209</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.2724</v>
-      </c>
-      <c r="B28" s="0">
-        <v>9.8418</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.2585</v>
-      </c>
-      <c r="B29" s="0">
-        <v>9.8181</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.2328</v>
-      </c>
-      <c r="B30" s="0">
-        <v>9.7548</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.214</v>
-      </c>
-      <c r="B31" s="0">
-        <v>9.7073</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.1824</v>
-      </c>
-      <c r="B32" s="0">
-        <v>9.6282</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.1725</v>
-      </c>
-      <c r="B33" s="0">
-        <v>9.5966</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.1577</v>
-      </c>
-      <c r="B34" s="0">
-        <v>9.5492</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.1488</v>
-      </c>
-      <c r="B35" s="0">
-        <v>9.5176</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.1231</v>
-      </c>
-      <c r="B36" s="0">
-        <v>9.4307</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.1152</v>
-      </c>
-      <c r="B37" s="0">
-        <v>9.3991</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.1033</v>
-      </c>
-      <c r="B38" s="0">
-        <v>9.3517</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0974</v>
-      </c>
-      <c r="B39" s="0">
-        <v>9.3201</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B40" s="0">
-        <v>9.2885</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0835</v>
-      </c>
-      <c r="B41" s="0">
-        <v>9.2411</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0776</v>
-      </c>
-      <c r="B42" s="0">
-        <v>9.2095</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0667</v>
-      </c>
-      <c r="B43" s="0">
-        <v>9.1464</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0598</v>
-      </c>
-      <c r="B44" s="0">
-        <v>9.0911</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0529</v>
-      </c>
-      <c r="B45" s="0">
-        <v>9.028</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.044</v>
-      </c>
-      <c r="B46" s="0">
-        <v>8.957</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="B47" s="0">
-        <v>8.9018</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.037</v>
-      </c>
-      <c r="B48" s="0">
-        <v>8.8623</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0301</v>
-      </c>
-      <c r="B49" s="0">
-        <v>8.7834</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0271</v>
-      </c>
-      <c r="B50" s="0">
-        <v>8.7361</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0242</v>
-      </c>
-      <c r="B51" s="0">
-        <v>8.6493</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0192</v>
-      </c>
-      <c r="B52" s="0">
-        <v>8.5783</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0162</v>
-      </c>
-      <c r="B53" s="0">
-        <v>8.5074</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0142</v>
-      </c>
-      <c r="B54" s="0">
-        <v>8.4443</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0122</v>
-      </c>
-      <c r="B55" s="0">
-        <v>8.3418</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0103</v>
-      </c>
-      <c r="B56" s="0">
-        <v>8.2629</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0093</v>
-      </c>
-      <c r="B57" s="0">
-        <v>8.1919</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0022</v>
-      </c>
-      <c r="B58" s="0">
-        <v>7.6321</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0011</v>
-      </c>
-      <c r="B59" s="0">
-        <v>6.8436</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.001</v>
-      </c>
-      <c r="B60" s="0">
-        <v>6.1813</v>
-      </c>
-    </row>
-    <row r="61"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>